--- a/Code/Results/Cases/Case_5_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_192/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02482848609172</v>
+        <v>1.049185476250953</v>
       </c>
       <c r="D2">
-        <v>1.0429115043071</v>
+        <v>1.056631418948794</v>
       </c>
       <c r="E2">
-        <v>1.037952685749182</v>
+        <v>1.056424711825644</v>
       </c>
       <c r="F2">
-        <v>1.048955910654334</v>
+        <v>1.06713958029171</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055262828791848</v>
+        <v>1.047076762066251</v>
       </c>
       <c r="J2">
-        <v>1.046291119362725</v>
+        <v>1.054225262611738</v>
       </c>
       <c r="K2">
-        <v>1.053803712241188</v>
+        <v>1.059368599651256</v>
       </c>
       <c r="L2">
-        <v>1.048907437346921</v>
+        <v>1.059162459640861</v>
       </c>
       <c r="M2">
-        <v>1.059772878507227</v>
+        <v>1.069848244470518</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028807918978234</v>
+        <v>1.050042291345222</v>
       </c>
       <c r="D3">
-        <v>1.045939535866972</v>
+        <v>1.05730876261192</v>
       </c>
       <c r="E3">
-        <v>1.041195404948261</v>
+        <v>1.057169986226655</v>
       </c>
       <c r="F3">
-        <v>1.05237614520221</v>
+        <v>1.067924808290429</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056440901351933</v>
+        <v>1.047287393483905</v>
       </c>
       <c r="J3">
-        <v>1.048542912254781</v>
+        <v>1.054731710113886</v>
       </c>
       <c r="K3">
-        <v>1.056016510542728</v>
+        <v>1.059859967496469</v>
       </c>
       <c r="L3">
-        <v>1.051326979529883</v>
+        <v>1.059721544458102</v>
       </c>
       <c r="M3">
-        <v>1.062380011199742</v>
+        <v>1.070449276200888</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031337322596739</v>
+        <v>1.050597475527166</v>
       </c>
       <c r="D4">
-        <v>1.047867221278191</v>
+        <v>1.05774772046027</v>
       </c>
       <c r="E4">
-        <v>1.043261916201377</v>
+        <v>1.057653250772435</v>
       </c>
       <c r="F4">
-        <v>1.054555267595447</v>
+        <v>1.068433933899662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057182151991783</v>
+        <v>1.047422918653767</v>
       </c>
       <c r="J4">
-        <v>1.049972020812321</v>
+        <v>1.05505950156958</v>
       </c>
       <c r="K4">
-        <v>1.057420317676652</v>
+        <v>1.060177903540013</v>
       </c>
       <c r="L4">
-        <v>1.052864807584641</v>
+        <v>1.060083662331436</v>
       </c>
       <c r="M4">
-        <v>1.064036997014006</v>
+        <v>1.070838551887949</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03239011169105</v>
+        <v>1.050831056983224</v>
       </c>
       <c r="D5">
-        <v>1.048670246351932</v>
+        <v>1.057932417176784</v>
       </c>
       <c r="E5">
-        <v>1.044123296237605</v>
+        <v>1.057856657988262</v>
       </c>
       <c r="F5">
-        <v>1.055463464234299</v>
+        <v>1.068648215034501</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057488833367709</v>
+        <v>1.047479708944336</v>
       </c>
       <c r="J5">
-        <v>1.050566295949763</v>
+        <v>1.055197324348303</v>
       </c>
       <c r="K5">
-        <v>1.058003932689705</v>
+        <v>1.060311559632247</v>
       </c>
       <c r="L5">
-        <v>1.053504834039592</v>
+        <v>1.060235979608428</v>
       </c>
       <c r="M5">
-        <v>1.064726596867001</v>
+        <v>1.071002289862425</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032566269105017</v>
+        <v>1.050870286961656</v>
       </c>
       <c r="D6">
-        <v>1.048804651171067</v>
+        <v>1.057963437828636</v>
       </c>
       <c r="E6">
-        <v>1.044267499087723</v>
+        <v>1.057890825137249</v>
       </c>
       <c r="F6">
-        <v>1.055615497409887</v>
+        <v>1.068684208072889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057540039554083</v>
+        <v>1.047489233443219</v>
       </c>
       <c r="J6">
-        <v>1.050665699705212</v>
+        <v>1.0552204664889</v>
       </c>
       <c r="K6">
-        <v>1.058101544998691</v>
+        <v>1.060334000790259</v>
       </c>
       <c r="L6">
-        <v>1.053611922430745</v>
+        <v>1.060261559168707</v>
       </c>
       <c r="M6">
-        <v>1.064841978676477</v>
+        <v>1.071029787212795</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031351431124704</v>
+        <v>1.050600595940925</v>
       </c>
       <c r="D7">
-        <v>1.04787798004753</v>
+        <v>1.05775018776504</v>
       </c>
       <c r="E7">
-        <v>1.043273454722993</v>
+        <v>1.057655967757966</v>
       </c>
       <c r="F7">
-        <v>1.05456743372759</v>
+        <v>1.068436796175563</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05718626916976</v>
+        <v>1.047423678214283</v>
       </c>
       <c r="J7">
-        <v>1.049979986952819</v>
+        <v>1.055061343090345</v>
       </c>
       <c r="K7">
-        <v>1.057428141476757</v>
+        <v>1.060179689477588</v>
       </c>
       <c r="L7">
-        <v>1.052873384872026</v>
+        <v>1.060085697278388</v>
       </c>
       <c r="M7">
-        <v>1.064046238732778</v>
+        <v>1.070840739425015</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026182992187181</v>
+        <v>1.049474880967545</v>
       </c>
       <c r="D8">
-        <v>1.043941521270017</v>
+        <v>1.056860190320937</v>
       </c>
       <c r="E8">
-        <v>1.039055285205542</v>
+        <v>1.056676368003242</v>
       </c>
       <c r="F8">
-        <v>1.050118977569676</v>
+        <v>1.067404737180445</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055665380285184</v>
+        <v>1.047148104384165</v>
       </c>
       <c r="J8">
-        <v>1.047058015375545</v>
+        <v>1.054396400284931</v>
       </c>
       <c r="K8">
-        <v>1.054557439998126</v>
+        <v>1.059534661322374</v>
       </c>
       <c r="L8">
-        <v>1.049730991230777</v>
+        <v>1.05935133106428</v>
       </c>
       <c r="M8">
-        <v>1.060660297942182</v>
+        <v>1.070051288795671</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016710921688552</v>
+        <v>1.047497181886414</v>
       </c>
       <c r="D9">
-        <v>1.036752971394986</v>
+        <v>1.055297123603673</v>
       </c>
       <c r="E9">
-        <v>1.031368949599593</v>
+        <v>1.05495810116187</v>
       </c>
       <c r="F9">
-        <v>1.042008920654033</v>
+        <v>1.065594098735263</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052819665638734</v>
+        <v>1.046656664256108</v>
       </c>
       <c r="J9">
-        <v>1.041687067639437</v>
+        <v>1.053225405002875</v>
       </c>
       <c r="K9">
-        <v>1.049276628630978</v>
+        <v>1.058398010516439</v>
       </c>
       <c r="L9">
-        <v>1.043972793206177</v>
+        <v>1.058060050600894</v>
       </c>
       <c r="M9">
-        <v>1.054455313230564</v>
+        <v>1.068663065641188</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010127939065636</v>
+        <v>1.04618282205697</v>
       </c>
       <c r="D10">
-        <v>1.031777128391877</v>
+        <v>1.054258701051068</v>
       </c>
       <c r="E10">
-        <v>1.026059340134515</v>
+        <v>1.053818024382454</v>
       </c>
       <c r="F10">
-        <v>1.036403795763578</v>
+        <v>1.064392491979945</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050804389608259</v>
+        <v>1.046325154177576</v>
       </c>
       <c r="J10">
-        <v>1.037945408992932</v>
+        <v>1.052445305568422</v>
       </c>
       <c r="K10">
-        <v>1.045595399412917</v>
+        <v>1.057640307237373</v>
       </c>
       <c r="L10">
-        <v>1.03997350321085</v>
+        <v>1.057201146295877</v>
       </c>
       <c r="M10">
-        <v>1.050145469998953</v>
+        <v>1.067739623045551</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007208297658969</v>
+        <v>1.045614685333821</v>
       </c>
       <c r="D11">
-        <v>1.029575685609563</v>
+        <v>1.053809935113369</v>
       </c>
       <c r="E11">
-        <v>1.023712687776313</v>
+        <v>1.053325671697133</v>
       </c>
       <c r="F11">
-        <v>1.033925857918257</v>
+        <v>1.063873509350492</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049902133556797</v>
+        <v>1.046180695238632</v>
       </c>
       <c r="J11">
-        <v>1.036284247497908</v>
+        <v>1.052107664754305</v>
       </c>
       <c r="K11">
-        <v>1.043960600113326</v>
+        <v>1.057312246121028</v>
       </c>
       <c r="L11">
-        <v>1.038200856654386</v>
+        <v>1.056829712473978</v>
       </c>
       <c r="M11">
-        <v>1.0482351397139</v>
+        <v>1.067340266390971</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006112921296552</v>
+        <v>1.04540380450102</v>
       </c>
       <c r="D12">
-        <v>1.028750628847203</v>
+        <v>1.05364337725666</v>
       </c>
       <c r="E12">
-        <v>1.022833569673615</v>
+        <v>1.053142988479437</v>
       </c>
       <c r="F12">
-        <v>1.032997453943132</v>
+        <v>1.063680936618225</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0495623989172</v>
+        <v>1.046126900373312</v>
       </c>
       <c r="J12">
-        <v>1.035660805724783</v>
+        <v>1.051982273441457</v>
       </c>
       <c r="K12">
-        <v>1.043346990417451</v>
+        <v>1.057190395453164</v>
       </c>
       <c r="L12">
-        <v>1.037536010317597</v>
+        <v>1.056691818667107</v>
       </c>
       <c r="M12">
-        <v>1.04751865092997</v>
+        <v>1.067192004334722</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.006348384463167</v>
+        <v>1.045449032319647</v>
       </c>
       <c r="D13">
-        <v>1.028927943624877</v>
+        <v>1.053679098397337</v>
       </c>
       <c r="E13">
-        <v>1.023022486753433</v>
+        <v>1.053182165636036</v>
       </c>
       <c r="F13">
-        <v>1.033196966917764</v>
+        <v>1.063722235015883</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049635483579158</v>
+        <v>1.046138445713822</v>
       </c>
       <c r="J13">
-        <v>1.035794830496295</v>
+        <v>1.05200916921734</v>
       </c>
       <c r="K13">
-        <v>1.043478904188133</v>
+        <v>1.057216532548081</v>
       </c>
       <c r="L13">
-        <v>1.037678916315812</v>
+        <v>1.056721394017416</v>
       </c>
       <c r="M13">
-        <v>1.047672657359974</v>
+        <v>1.067223803547752</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007117978686024</v>
+        <v>1.045597250779321</v>
       </c>
       <c r="D14">
-        <v>1.029507637752958</v>
+        <v>1.053796164648624</v>
       </c>
       <c r="E14">
-        <v>1.023640173847637</v>
+        <v>1.05331056698483</v>
       </c>
       <c r="F14">
-        <v>1.033849280749428</v>
+        <v>1.063857587125859</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049874145623179</v>
+        <v>1.046176251316014</v>
       </c>
       <c r="J14">
-        <v>1.036232845930664</v>
+        <v>1.052097299381531</v>
       </c>
       <c r="K14">
-        <v>1.04391001038937</v>
+        <v>1.057302173779509</v>
       </c>
       <c r="L14">
-        <v>1.038146032479085</v>
+        <v>1.056818312625721</v>
       </c>
       <c r="M14">
-        <v>1.048176057076808</v>
+        <v>1.067328009427157</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.007590692400621</v>
+        <v>1.045688593051441</v>
       </c>
       <c r="D15">
-        <v>1.029863824144739</v>
+        <v>1.053868310815575</v>
       </c>
       <c r="E15">
-        <v>1.024019751879275</v>
+        <v>1.053389705654477</v>
       </c>
       <c r="F15">
-        <v>1.034250123825484</v>
+        <v>1.063941008660825</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050020579611162</v>
+        <v>1.046199526546149</v>
       </c>
       <c r="J15">
-        <v>1.03650186418227</v>
+        <v>1.052151602442</v>
       </c>
       <c r="K15">
-        <v>1.044174777260759</v>
+        <v>1.057354940984743</v>
       </c>
       <c r="L15">
-        <v>1.038432981296672</v>
+        <v>1.056878037131384</v>
       </c>
       <c r="M15">
-        <v>1.048485294503665</v>
+        <v>1.067392224333155</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.01032020676756</v>
+        <v>1.046220548421869</v>
       </c>
       <c r="D16">
-        <v>1.031922218066044</v>
+        <v>1.054288502826716</v>
       </c>
       <c r="E16">
-        <v>1.026214050667853</v>
+        <v>1.053850727936394</v>
       </c>
       <c r="F16">
-        <v>1.036567147453989</v>
+        <v>1.064426963155744</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050863632925663</v>
+        <v>1.046334722273577</v>
       </c>
       <c r="J16">
-        <v>1.03805476975773</v>
+        <v>1.052467716899966</v>
       </c>
       <c r="K16">
-        <v>1.045703015617056</v>
+        <v>1.05766208031393</v>
       </c>
       <c r="L16">
-        <v>1.040090263967187</v>
+        <v>1.057225807324194</v>
       </c>
       <c r="M16">
-        <v>1.050271299180185</v>
+        <v>1.067766137708895</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012013497192638</v>
+        <v>1.046554496186544</v>
       </c>
       <c r="D17">
-        <v>1.033200638249041</v>
+        <v>1.054552314550763</v>
       </c>
       <c r="E17">
-        <v>1.027577522183557</v>
+        <v>1.054140266633813</v>
       </c>
       <c r="F17">
-        <v>1.038006696252638</v>
+        <v>1.064732144698516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051384425686427</v>
+        <v>1.046419283116915</v>
       </c>
       <c r="J17">
-        <v>1.039017715834748</v>
+        <v>1.052666047578747</v>
       </c>
       <c r="K17">
-        <v>1.04665054826643</v>
+        <v>1.057854749575137</v>
       </c>
       <c r="L17">
-        <v>1.041118698743139</v>
+        <v>1.057444083272555</v>
       </c>
       <c r="M17">
-        <v>1.051379605477124</v>
+        <v>1.068000818745465</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.012994526557916</v>
+        <v>1.046749377647782</v>
       </c>
       <c r="D18">
-        <v>1.033941818035928</v>
+        <v>1.054706276041267</v>
       </c>
       <c r="E18">
-        <v>1.028368246205652</v>
+        <v>1.054309275736673</v>
       </c>
       <c r="F18">
-        <v>1.038841475494282</v>
+        <v>1.064910279251151</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051685346834945</v>
+        <v>1.046468517894188</v>
       </c>
       <c r="J18">
-        <v>1.039575448031727</v>
+        <v>1.052781744636796</v>
       </c>
       <c r="K18">
-        <v>1.047199308218878</v>
+        <v>1.057967133037247</v>
       </c>
       <c r="L18">
-        <v>1.041714636563632</v>
+        <v>1.057571445901033</v>
       </c>
       <c r="M18">
-        <v>1.052021822343737</v>
+        <v>1.068137752363404</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013327920960831</v>
+        <v>1.046815843315027</v>
       </c>
       <c r="D19">
-        <v>1.034193786606457</v>
+        <v>1.054758787218334</v>
       </c>
       <c r="E19">
-        <v>1.02863709771062</v>
+        <v>1.054366924798533</v>
       </c>
       <c r="F19">
-        <v>1.03912529513875</v>
+        <v>1.064971040063677</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051787474298667</v>
+        <v>1.046485290708862</v>
       </c>
       <c r="J19">
-        <v>1.03976495979694</v>
+        <v>1.052821196698332</v>
       </c>
       <c r="K19">
-        <v>1.047385763449599</v>
+        <v>1.05800545331543</v>
       </c>
       <c r="L19">
-        <v>1.041917176817864</v>
+        <v>1.057614881015273</v>
       </c>
       <c r="M19">
-        <v>1.052240090733734</v>
+        <v>1.068184451303439</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011832513306503</v>
+        <v>1.04651865687367</v>
       </c>
       <c r="D20">
-        <v>1.033063943554676</v>
+        <v>1.054524001287733</v>
       </c>
       <c r="E20">
-        <v>1.027431709132837</v>
+        <v>1.054109188816593</v>
       </c>
       <c r="F20">
-        <v>1.037852754011835</v>
+        <v>1.064699388422856</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051328845205176</v>
+        <v>1.046410219649073</v>
       </c>
       <c r="J20">
-        <v>1.038914809937681</v>
+        <v>1.052644767102589</v>
       </c>
       <c r="K20">
-        <v>1.046549294133249</v>
+        <v>1.05783407769298</v>
       </c>
       <c r="L20">
-        <v>1.041008765820355</v>
+        <v>1.05742065956409</v>
       </c>
       <c r="M20">
-        <v>1.051261135149391</v>
+        <v>1.067975634699982</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006891657192568</v>
+        <v>1.045553599970232</v>
       </c>
       <c r="D21">
-        <v>1.029337137483126</v>
+        <v>1.053761687846787</v>
       </c>
       <c r="E21">
-        <v>1.023458489193858</v>
+        <v>1.053272750492802</v>
       </c>
       <c r="F21">
-        <v>1.033657413929914</v>
+        <v>1.063817723751093</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049803993695848</v>
+        <v>1.046165122267122</v>
       </c>
       <c r="J21">
-        <v>1.03610404041998</v>
+        <v>1.052071346584476</v>
       </c>
       <c r="K21">
-        <v>1.043783238283434</v>
+        <v>1.057276954398851</v>
       </c>
       <c r="L21">
-        <v>1.038008657403003</v>
+        <v>1.056789770476813</v>
       </c>
       <c r="M21">
-        <v>1.048028011366218</v>
+        <v>1.067297321259961</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003721860396981</v>
+        <v>1.044947701671428</v>
       </c>
       <c r="D22">
-        <v>1.026951301463602</v>
+        <v>1.053283166160862</v>
       </c>
       <c r="E22">
-        <v>1.020916994157608</v>
+        <v>1.052747997904439</v>
       </c>
       <c r="F22">
-        <v>1.030973239892305</v>
+        <v>1.063264547365341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048818586647313</v>
+        <v>1.046010231124711</v>
       </c>
       <c r="J22">
-        <v>1.034299561887368</v>
+        <v>1.051710951100655</v>
       </c>
       <c r="K22">
-        <v>1.042007110112877</v>
+        <v>1.056926703349914</v>
       </c>
       <c r="L22">
-        <v>1.036085166039671</v>
+        <v>1.056393530040968</v>
       </c>
       <c r="M22">
-        <v>1.04595510819394</v>
+        <v>1.066871283760793</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005408403022999</v>
+        <v>1.045268816653365</v>
       </c>
       <c r="D23">
-        <v>1.028220225505028</v>
+        <v>1.053536765461753</v>
       </c>
       <c r="E23">
-        <v>1.022268512353699</v>
+        <v>1.053026069575469</v>
       </c>
       <c r="F23">
-        <v>1.032400688808075</v>
+        <v>1.063557685880895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049343548496022</v>
+        <v>1.046092416351782</v>
       </c>
       <c r="J23">
-        <v>1.035259767888246</v>
+        <v>1.051901990143271</v>
       </c>
       <c r="K23">
-        <v>1.042952260856949</v>
+        <v>1.057112374315467</v>
       </c>
       <c r="L23">
-        <v>1.037108461549119</v>
+        <v>1.056603543838571</v>
       </c>
       <c r="M23">
-        <v>1.047057891421263</v>
+        <v>1.067097091558758</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.01191431261265</v>
+        <v>1.046534850821979</v>
       </c>
       <c r="D24">
-        <v>1.033125723891479</v>
+        <v>1.054536794571493</v>
       </c>
       <c r="E24">
-        <v>1.027497609861057</v>
+        <v>1.054123231155161</v>
       </c>
       <c r="F24">
-        <v>1.037922328956589</v>
+        <v>1.064714189180716</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051353968424384</v>
+        <v>1.046414315312469</v>
       </c>
       <c r="J24">
-        <v>1.038961320834464</v>
+        <v>1.052654382790278</v>
       </c>
       <c r="K24">
-        <v>1.046595058613736</v>
+        <v>1.057843418418427</v>
       </c>
       <c r="L24">
-        <v>1.041058451905148</v>
+        <v>1.05743124358787</v>
       </c>
       <c r="M24">
-        <v>1.051314679872578</v>
+        <v>1.067987014137572</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019205191273017</v>
+        <v>1.048007748290789</v>
       </c>
       <c r="D25">
-        <v>1.03864264921393</v>
+        <v>1.055700583522109</v>
       </c>
       <c r="E25">
-        <v>1.033387578409338</v>
+        <v>1.055401364820919</v>
       </c>
       <c r="F25">
-        <v>1.044139314006493</v>
+        <v>1.066061234043676</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053575658178819</v>
+        <v>1.046784401128701</v>
       </c>
       <c r="J25">
-        <v>1.043103070565248</v>
+        <v>1.053528041842384</v>
       </c>
       <c r="K25">
-        <v>1.050669306379443</v>
+        <v>1.058691856827516</v>
       </c>
       <c r="L25">
-        <v>1.045488797011186</v>
+        <v>1.058393540500242</v>
       </c>
       <c r="M25">
-        <v>1.056088995289173</v>
+        <v>1.069021602199975</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_192/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049185476250953</v>
+        <v>1.024828486091719</v>
       </c>
       <c r="D2">
-        <v>1.056631418948794</v>
+        <v>1.042911504307099</v>
       </c>
       <c r="E2">
-        <v>1.056424711825644</v>
+        <v>1.037952685749181</v>
       </c>
       <c r="F2">
-        <v>1.06713958029171</v>
+        <v>1.048955910654334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047076762066251</v>
+        <v>1.055262828791848</v>
       </c>
       <c r="J2">
-        <v>1.054225262611738</v>
+        <v>1.046291119362724</v>
       </c>
       <c r="K2">
-        <v>1.059368599651256</v>
+        <v>1.053803712241187</v>
       </c>
       <c r="L2">
-        <v>1.059162459640861</v>
+        <v>1.048907437346921</v>
       </c>
       <c r="M2">
-        <v>1.069848244470518</v>
+        <v>1.059772878507226</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050042291345222</v>
+        <v>1.028807918978234</v>
       </c>
       <c r="D3">
-        <v>1.05730876261192</v>
+        <v>1.045939535866973</v>
       </c>
       <c r="E3">
-        <v>1.057169986226655</v>
+        <v>1.041195404948261</v>
       </c>
       <c r="F3">
-        <v>1.067924808290429</v>
+        <v>1.05237614520221</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047287393483905</v>
+        <v>1.056440901351933</v>
       </c>
       <c r="J3">
-        <v>1.054731710113886</v>
+        <v>1.048542912254781</v>
       </c>
       <c r="K3">
-        <v>1.059859967496469</v>
+        <v>1.056016510542728</v>
       </c>
       <c r="L3">
-        <v>1.059721544458102</v>
+        <v>1.051326979529883</v>
       </c>
       <c r="M3">
-        <v>1.070449276200888</v>
+        <v>1.062380011199742</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050597475527166</v>
+        <v>1.03133732259674</v>
       </c>
       <c r="D4">
-        <v>1.05774772046027</v>
+        <v>1.047867221278191</v>
       </c>
       <c r="E4">
-        <v>1.057653250772435</v>
+        <v>1.043261916201378</v>
       </c>
       <c r="F4">
-        <v>1.068433933899662</v>
+        <v>1.054555267595447</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047422918653767</v>
+        <v>1.057182151991783</v>
       </c>
       <c r="J4">
-        <v>1.05505950156958</v>
+        <v>1.049972020812321</v>
       </c>
       <c r="K4">
-        <v>1.060177903540013</v>
+        <v>1.057420317676653</v>
       </c>
       <c r="L4">
-        <v>1.060083662331436</v>
+        <v>1.052864807584641</v>
       </c>
       <c r="M4">
-        <v>1.070838551887949</v>
+        <v>1.064036997014006</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050831056983224</v>
+        <v>1.032390111691049</v>
       </c>
       <c r="D5">
-        <v>1.057932417176784</v>
+        <v>1.04867024635193</v>
       </c>
       <c r="E5">
-        <v>1.057856657988262</v>
+        <v>1.044123296237604</v>
       </c>
       <c r="F5">
-        <v>1.068648215034501</v>
+        <v>1.055463464234298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047479708944336</v>
+        <v>1.057488833367709</v>
       </c>
       <c r="J5">
-        <v>1.055197324348303</v>
+        <v>1.050566295949762</v>
       </c>
       <c r="K5">
-        <v>1.060311559632247</v>
+        <v>1.058003932689704</v>
       </c>
       <c r="L5">
-        <v>1.060235979608428</v>
+        <v>1.053504834039591</v>
       </c>
       <c r="M5">
-        <v>1.071002289862425</v>
+        <v>1.064726596867</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050870286961656</v>
+        <v>1.032566269105017</v>
       </c>
       <c r="D6">
-        <v>1.057963437828636</v>
+        <v>1.048804651171067</v>
       </c>
       <c r="E6">
-        <v>1.057890825137249</v>
+        <v>1.044267499087723</v>
       </c>
       <c r="F6">
-        <v>1.068684208072889</v>
+        <v>1.055615497409888</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047489233443219</v>
+        <v>1.057540039554083</v>
       </c>
       <c r="J6">
-        <v>1.0552204664889</v>
+        <v>1.050665699705212</v>
       </c>
       <c r="K6">
-        <v>1.060334000790259</v>
+        <v>1.058101544998691</v>
       </c>
       <c r="L6">
-        <v>1.060261559168707</v>
+        <v>1.053611922430745</v>
       </c>
       <c r="M6">
-        <v>1.071029787212795</v>
+        <v>1.064841978676478</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050600595940925</v>
+        <v>1.031351431124704</v>
       </c>
       <c r="D7">
-        <v>1.05775018776504</v>
+        <v>1.04787798004753</v>
       </c>
       <c r="E7">
-        <v>1.057655967757966</v>
+        <v>1.043273454722993</v>
       </c>
       <c r="F7">
-        <v>1.068436796175563</v>
+        <v>1.05456743372759</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047423678214283</v>
+        <v>1.05718626916976</v>
       </c>
       <c r="J7">
-        <v>1.055061343090345</v>
+        <v>1.049979986952819</v>
       </c>
       <c r="K7">
-        <v>1.060179689477588</v>
+        <v>1.057428141476757</v>
       </c>
       <c r="L7">
-        <v>1.060085697278388</v>
+        <v>1.052873384872026</v>
       </c>
       <c r="M7">
-        <v>1.070840739425015</v>
+        <v>1.064046238732778</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049474880967545</v>
+        <v>1.026182992187181</v>
       </c>
       <c r="D8">
-        <v>1.056860190320937</v>
+        <v>1.043941521270016</v>
       </c>
       <c r="E8">
-        <v>1.056676368003242</v>
+        <v>1.039055285205541</v>
       </c>
       <c r="F8">
-        <v>1.067404737180445</v>
+        <v>1.050118977569676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047148104384165</v>
+        <v>1.055665380285183</v>
       </c>
       <c r="J8">
-        <v>1.054396400284931</v>
+        <v>1.047058015375545</v>
       </c>
       <c r="K8">
-        <v>1.059534661322374</v>
+        <v>1.054557439998125</v>
       </c>
       <c r="L8">
-        <v>1.05935133106428</v>
+        <v>1.049730991230777</v>
       </c>
       <c r="M8">
-        <v>1.070051288795671</v>
+        <v>1.060660297942182</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047497181886414</v>
+        <v>1.016710921688553</v>
       </c>
       <c r="D9">
-        <v>1.055297123603673</v>
+        <v>1.036752971394987</v>
       </c>
       <c r="E9">
-        <v>1.05495810116187</v>
+        <v>1.031368949599593</v>
       </c>
       <c r="F9">
-        <v>1.065594098735263</v>
+        <v>1.042008920654034</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046656664256108</v>
+        <v>1.052819665638735</v>
       </c>
       <c r="J9">
-        <v>1.053225405002875</v>
+        <v>1.041687067639437</v>
       </c>
       <c r="K9">
-        <v>1.058398010516439</v>
+        <v>1.049276628630979</v>
       </c>
       <c r="L9">
-        <v>1.058060050600894</v>
+        <v>1.043972793206178</v>
       </c>
       <c r="M9">
-        <v>1.068663065641188</v>
+        <v>1.054455313230564</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04618282205697</v>
+        <v>1.010127939065636</v>
       </c>
       <c r="D10">
-        <v>1.054258701051068</v>
+        <v>1.031777128391876</v>
       </c>
       <c r="E10">
-        <v>1.053818024382454</v>
+        <v>1.026059340134515</v>
       </c>
       <c r="F10">
-        <v>1.064392491979945</v>
+        <v>1.036403795763578</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046325154177576</v>
+        <v>1.050804389608259</v>
       </c>
       <c r="J10">
-        <v>1.052445305568422</v>
+        <v>1.037945408992932</v>
       </c>
       <c r="K10">
-        <v>1.057640307237373</v>
+        <v>1.045595399412916</v>
       </c>
       <c r="L10">
-        <v>1.057201146295877</v>
+        <v>1.039973503210849</v>
       </c>
       <c r="M10">
-        <v>1.067739623045551</v>
+        <v>1.050145469998952</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045614685333821</v>
+        <v>1.007208297658969</v>
       </c>
       <c r="D11">
-        <v>1.053809935113369</v>
+        <v>1.029575685609563</v>
       </c>
       <c r="E11">
-        <v>1.053325671697133</v>
+        <v>1.023712687776313</v>
       </c>
       <c r="F11">
-        <v>1.063873509350492</v>
+        <v>1.033925857918257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046180695238632</v>
+        <v>1.049902133556797</v>
       </c>
       <c r="J11">
-        <v>1.052107664754305</v>
+        <v>1.036284247497908</v>
       </c>
       <c r="K11">
-        <v>1.057312246121028</v>
+        <v>1.043960600113326</v>
       </c>
       <c r="L11">
-        <v>1.056829712473978</v>
+        <v>1.038200856654386</v>
       </c>
       <c r="M11">
-        <v>1.067340266390971</v>
+        <v>1.0482351397139</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04540380450102</v>
+        <v>1.006112921296551</v>
       </c>
       <c r="D12">
-        <v>1.05364337725666</v>
+        <v>1.028750628847203</v>
       </c>
       <c r="E12">
-        <v>1.053142988479437</v>
+        <v>1.022833569673614</v>
       </c>
       <c r="F12">
-        <v>1.063680936618225</v>
+        <v>1.032997453943131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046126900373312</v>
+        <v>1.0495623989172</v>
       </c>
       <c r="J12">
-        <v>1.051982273441457</v>
+        <v>1.035660805724783</v>
       </c>
       <c r="K12">
-        <v>1.057190395453164</v>
+        <v>1.04334699041745</v>
       </c>
       <c r="L12">
-        <v>1.056691818667107</v>
+        <v>1.037536010317597</v>
       </c>
       <c r="M12">
-        <v>1.067192004334722</v>
+        <v>1.047518650929969</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045449032319647</v>
+        <v>1.006348384463166</v>
       </c>
       <c r="D13">
-        <v>1.053679098397337</v>
+        <v>1.028927943624876</v>
       </c>
       <c r="E13">
-        <v>1.053182165636036</v>
+        <v>1.023022486753432</v>
       </c>
       <c r="F13">
-        <v>1.063722235015883</v>
+        <v>1.033196966917762</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046138445713822</v>
+        <v>1.049635483579158</v>
       </c>
       <c r="J13">
-        <v>1.05200916921734</v>
+        <v>1.035794830496294</v>
       </c>
       <c r="K13">
-        <v>1.057216532548081</v>
+        <v>1.043478904188132</v>
       </c>
       <c r="L13">
-        <v>1.056721394017416</v>
+        <v>1.037678916315811</v>
       </c>
       <c r="M13">
-        <v>1.067223803547752</v>
+        <v>1.047672657359972</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045597250779321</v>
+        <v>1.007117978686023</v>
       </c>
       <c r="D14">
-        <v>1.053796164648624</v>
+        <v>1.029507637752956</v>
       </c>
       <c r="E14">
-        <v>1.05331056698483</v>
+        <v>1.023640173847636</v>
       </c>
       <c r="F14">
-        <v>1.063857587125859</v>
+        <v>1.033849280749427</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046176251316014</v>
+        <v>1.049874145623178</v>
       </c>
       <c r="J14">
-        <v>1.052097299381531</v>
+        <v>1.036232845930663</v>
       </c>
       <c r="K14">
-        <v>1.057302173779509</v>
+        <v>1.04391001038937</v>
       </c>
       <c r="L14">
-        <v>1.056818312625721</v>
+        <v>1.038146032479084</v>
       </c>
       <c r="M14">
-        <v>1.067328009427157</v>
+        <v>1.048176057076807</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045688593051441</v>
+        <v>1.007590692400621</v>
       </c>
       <c r="D15">
-        <v>1.053868310815575</v>
+        <v>1.029863824144739</v>
       </c>
       <c r="E15">
-        <v>1.053389705654477</v>
+        <v>1.024019751879275</v>
       </c>
       <c r="F15">
-        <v>1.063941008660825</v>
+        <v>1.034250123825484</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046199526546149</v>
+        <v>1.050020579611162</v>
       </c>
       <c r="J15">
-        <v>1.052151602442</v>
+        <v>1.03650186418227</v>
       </c>
       <c r="K15">
-        <v>1.057354940984743</v>
+        <v>1.044174777260759</v>
       </c>
       <c r="L15">
-        <v>1.056878037131384</v>
+        <v>1.038432981296672</v>
       </c>
       <c r="M15">
-        <v>1.067392224333155</v>
+        <v>1.048485294503665</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046220548421869</v>
+        <v>1.01032020676756</v>
       </c>
       <c r="D16">
-        <v>1.054288502826716</v>
+        <v>1.031922218066044</v>
       </c>
       <c r="E16">
-        <v>1.053850727936394</v>
+        <v>1.026214050667853</v>
       </c>
       <c r="F16">
-        <v>1.064426963155744</v>
+        <v>1.036567147453989</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046334722273577</v>
+        <v>1.050863632925663</v>
       </c>
       <c r="J16">
-        <v>1.052467716899966</v>
+        <v>1.03805476975773</v>
       </c>
       <c r="K16">
-        <v>1.05766208031393</v>
+        <v>1.045703015617056</v>
       </c>
       <c r="L16">
-        <v>1.057225807324194</v>
+        <v>1.040090263967187</v>
       </c>
       <c r="M16">
-        <v>1.067766137708895</v>
+        <v>1.050271299180185</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046554496186544</v>
+        <v>1.012013497192638</v>
       </c>
       <c r="D17">
-        <v>1.054552314550763</v>
+        <v>1.033200638249041</v>
       </c>
       <c r="E17">
-        <v>1.054140266633813</v>
+        <v>1.027577522183557</v>
       </c>
       <c r="F17">
-        <v>1.064732144698516</v>
+        <v>1.038006696252638</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046419283116915</v>
+        <v>1.051384425686427</v>
       </c>
       <c r="J17">
-        <v>1.052666047578747</v>
+        <v>1.039017715834748</v>
       </c>
       <c r="K17">
-        <v>1.057854749575137</v>
+        <v>1.04665054826643</v>
       </c>
       <c r="L17">
-        <v>1.057444083272555</v>
+        <v>1.041118698743139</v>
       </c>
       <c r="M17">
-        <v>1.068000818745465</v>
+        <v>1.051379605477124</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046749377647782</v>
+        <v>1.012994526557916</v>
       </c>
       <c r="D18">
-        <v>1.054706276041267</v>
+        <v>1.033941818035928</v>
       </c>
       <c r="E18">
-        <v>1.054309275736673</v>
+        <v>1.028368246205652</v>
       </c>
       <c r="F18">
-        <v>1.064910279251151</v>
+        <v>1.038841475494282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046468517894188</v>
+        <v>1.051685346834945</v>
       </c>
       <c r="J18">
-        <v>1.052781744636796</v>
+        <v>1.039575448031727</v>
       </c>
       <c r="K18">
-        <v>1.057967133037247</v>
+        <v>1.047199308218877</v>
       </c>
       <c r="L18">
-        <v>1.057571445901033</v>
+        <v>1.041714636563632</v>
       </c>
       <c r="M18">
-        <v>1.068137752363404</v>
+        <v>1.052021822343736</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046815843315027</v>
+        <v>1.013327920960831</v>
       </c>
       <c r="D19">
-        <v>1.054758787218334</v>
+        <v>1.034193786606458</v>
       </c>
       <c r="E19">
-        <v>1.054366924798533</v>
+        <v>1.02863709771062</v>
       </c>
       <c r="F19">
-        <v>1.064971040063677</v>
+        <v>1.03912529513875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046485290708862</v>
+        <v>1.051787474298667</v>
       </c>
       <c r="J19">
-        <v>1.052821196698332</v>
+        <v>1.03976495979694</v>
       </c>
       <c r="K19">
-        <v>1.05800545331543</v>
+        <v>1.047385763449599</v>
       </c>
       <c r="L19">
-        <v>1.057614881015273</v>
+        <v>1.041917176817864</v>
       </c>
       <c r="M19">
-        <v>1.068184451303439</v>
+        <v>1.052240090733734</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04651865687367</v>
+        <v>1.011832513306503</v>
       </c>
       <c r="D20">
-        <v>1.054524001287733</v>
+        <v>1.033063943554676</v>
       </c>
       <c r="E20">
-        <v>1.054109188816593</v>
+        <v>1.027431709132837</v>
       </c>
       <c r="F20">
-        <v>1.064699388422856</v>
+        <v>1.037852754011835</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046410219649073</v>
+        <v>1.051328845205177</v>
       </c>
       <c r="J20">
-        <v>1.052644767102589</v>
+        <v>1.038914809937681</v>
       </c>
       <c r="K20">
-        <v>1.05783407769298</v>
+        <v>1.046549294133249</v>
       </c>
       <c r="L20">
-        <v>1.05742065956409</v>
+        <v>1.041008765820354</v>
       </c>
       <c r="M20">
-        <v>1.067975634699982</v>
+        <v>1.051261135149391</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045553599970232</v>
+        <v>1.006891657192568</v>
       </c>
       <c r="D21">
-        <v>1.053761687846787</v>
+        <v>1.029337137483126</v>
       </c>
       <c r="E21">
-        <v>1.053272750492802</v>
+        <v>1.023458489193858</v>
       </c>
       <c r="F21">
-        <v>1.063817723751093</v>
+        <v>1.033657413929914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046165122267122</v>
+        <v>1.049803993695848</v>
       </c>
       <c r="J21">
-        <v>1.052071346584476</v>
+        <v>1.03610404041998</v>
       </c>
       <c r="K21">
-        <v>1.057276954398851</v>
+        <v>1.043783238283434</v>
       </c>
       <c r="L21">
-        <v>1.056789770476813</v>
+        <v>1.038008657403003</v>
       </c>
       <c r="M21">
-        <v>1.067297321259961</v>
+        <v>1.048028011366219</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044947701671428</v>
+        <v>1.00372186039698</v>
       </c>
       <c r="D22">
-        <v>1.053283166160862</v>
+        <v>1.026951301463601</v>
       </c>
       <c r="E22">
-        <v>1.052747997904439</v>
+        <v>1.020916994157606</v>
       </c>
       <c r="F22">
-        <v>1.063264547365341</v>
+        <v>1.030973239892304</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046010231124711</v>
+        <v>1.048818586647313</v>
       </c>
       <c r="J22">
-        <v>1.051710951100655</v>
+        <v>1.034299561887367</v>
       </c>
       <c r="K22">
-        <v>1.056926703349914</v>
+        <v>1.042007110112876</v>
       </c>
       <c r="L22">
-        <v>1.056393530040968</v>
+        <v>1.036085166039669</v>
       </c>
       <c r="M22">
-        <v>1.066871283760793</v>
+        <v>1.045955108193939</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045268816653365</v>
+        <v>1.005408403022998</v>
       </c>
       <c r="D23">
-        <v>1.053536765461753</v>
+        <v>1.028220225505028</v>
       </c>
       <c r="E23">
-        <v>1.053026069575469</v>
+        <v>1.022268512353698</v>
       </c>
       <c r="F23">
-        <v>1.063557685880895</v>
+        <v>1.032400688808074</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046092416351782</v>
+        <v>1.049343548496022</v>
       </c>
       <c r="J23">
-        <v>1.051901990143271</v>
+        <v>1.035259767888245</v>
       </c>
       <c r="K23">
-        <v>1.057112374315467</v>
+        <v>1.042952260856948</v>
       </c>
       <c r="L23">
-        <v>1.056603543838571</v>
+        <v>1.037108461549119</v>
       </c>
       <c r="M23">
-        <v>1.067097091558758</v>
+        <v>1.047057891421262</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046534850821979</v>
+        <v>1.01191431261265</v>
       </c>
       <c r="D24">
-        <v>1.054536794571493</v>
+        <v>1.033125723891478</v>
       </c>
       <c r="E24">
-        <v>1.054123231155161</v>
+        <v>1.027497609861057</v>
       </c>
       <c r="F24">
-        <v>1.064714189180716</v>
+        <v>1.037922328956588</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046414315312469</v>
+        <v>1.051353968424384</v>
       </c>
       <c r="J24">
-        <v>1.052654382790278</v>
+        <v>1.038961320834463</v>
       </c>
       <c r="K24">
-        <v>1.057843418418427</v>
+        <v>1.046595058613735</v>
       </c>
       <c r="L24">
-        <v>1.05743124358787</v>
+        <v>1.041058451905148</v>
       </c>
       <c r="M24">
-        <v>1.067987014137572</v>
+        <v>1.051314679872577</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048007748290789</v>
+        <v>1.019205191273017</v>
       </c>
       <c r="D25">
-        <v>1.055700583522109</v>
+        <v>1.03864264921393</v>
       </c>
       <c r="E25">
-        <v>1.055401364820919</v>
+        <v>1.033387578409338</v>
       </c>
       <c r="F25">
-        <v>1.066061234043676</v>
+        <v>1.044139314006492</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046784401128701</v>
+        <v>1.053575658178818</v>
       </c>
       <c r="J25">
-        <v>1.053528041842384</v>
+        <v>1.043103070565247</v>
       </c>
       <c r="K25">
-        <v>1.058691856827516</v>
+        <v>1.050669306379443</v>
       </c>
       <c r="L25">
-        <v>1.058393540500242</v>
+        <v>1.045488797011186</v>
       </c>
       <c r="M25">
-        <v>1.069021602199975</v>
+        <v>1.056088995289172</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
